--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1507945.525086692</v>
+        <v>1519596.559676642</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2410308.368878929</v>
+        <v>2410308.368878931</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9753142.318830067</v>
+        <v>9753142.318830065</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>145.1986582043249</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>74.9929849293728</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.77297667501385</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>90.88875723934441</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>20.0040272933122</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.00402729331168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>116.8405921356978</v>
       </c>
       <c r="G5" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666384</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>68.116939187661</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>45.97688236922274</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>68.03824898417336</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.00402729331169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20.0040272933122</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402857</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666384</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>130.1712092340061</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>158.9209832102731</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409151</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>68.91513666658935</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>90.8887572393443</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20.00402729331206</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>257.4305823736202</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1642512458454</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.3879184575342</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>39.32117841962666</v>
       </c>
       <c r="V14" t="n">
-        <v>168.1158122680985</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414546</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>232.0868610644565</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>142.0975176632409</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015448052</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>120.6073236808686</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>328.444278398058</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>225.7508892923968</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>224.7562560951396</v>
+        <v>191.8948763782596</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>370.2528279346266</v>
+        <v>410.1348553313306</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I23" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>200.4734453045276</v>
+        <v>124.9744115400729</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,10 +2414,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H24" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I24" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>128.7524321877167</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H25" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>183.6178439565572</v>
       </c>
       <c r="T25" t="n">
-        <v>90.44434317850447</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I26" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U26" t="n">
-        <v>124.9744115400756</v>
+        <v>172.2373820621639</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,10 +2651,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H27" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I27" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>176.3956112212537</v>
       </c>
       <c r="W28" t="n">
-        <v>133.8131664062394</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H29" t="n">
-        <v>218.1019869979055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T29" t="n">
         <v>200.4734453045276</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9322223331321</v>
+        <v>131.0343522929113</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H30" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I30" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>95.75323167695336</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.6728453215022</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.6178439565572</v>
@@ -3006,7 +3006,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1925856817478</v>
+        <v>89.99975901755919</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>192.9200902154701</v>
+        <v>410.1348553313306</v>
       </c>
       <c r="H32" t="n">
         <v>286.5492287008803</v>
       </c>
       <c r="I32" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>110.5374933542743</v>
       </c>
       <c r="U32" t="n">
         <v>250.9322223331321</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H33" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I33" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.17925589982777</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>218.04083490674</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>129.7180768222972</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.1348553313306</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I35" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.44478964412552</v>
       </c>
       <c r="T35" t="n">
-        <v>160.5914179078235</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U35" t="n">
         <v>250.9322223331321</v>
@@ -3362,10 +3362,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H36" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I36" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>85.32240591679349</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S37" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T37" t="n">
-        <v>93.42673563435488</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.1348553313306</v>
       </c>
       <c r="H38" t="n">
         <v>286.5492287008803</v>
       </c>
       <c r="I38" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>243.3788672440749</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>213.0355593563617</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H39" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I39" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.6728453215022</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T40" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>120.4346966796441</v>
       </c>
       <c r="X40" t="n">
-        <v>222.5627250573231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I41" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U41" t="n">
-        <v>124.9744115400756</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>12.56211405183431</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H42" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372852</v>
       </c>
       <c r="I42" t="n">
-        <v>4.321823945400325</v>
+        <v>4.32182394540034</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>12.59921244304571</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H43" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S43" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T43" t="n">
-        <v>218.04083490674</v>
+        <v>137.6903955020315</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H44" t="n">
-        <v>286.5492287008803</v>
+        <v>131.0343522929103</v>
       </c>
       <c r="I44" t="n">
-        <v>11.24111167928658</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>91.25695432280247</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U44" t="n">
-        <v>124.9744115400738</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>85.53077870372852</v>
       </c>
       <c r="I45" t="n">
-        <v>4.32182394540034</v>
+        <v>4.321823945400354</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.73786225223843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1925856817478</v>
+        <v>21.59413115639009</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.3409146032925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912179</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652791</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652791</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652791</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652791</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652791</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487945</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323098</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148099</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832527</v>
+        <v>407.0717515820916</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.03616812153786</v>
+        <v>581.8870116452119</v>
       </c>
       <c r="C3" t="n">
-        <v>90.03616812153786</v>
+        <v>544.7425907613596</v>
       </c>
       <c r="D3" t="n">
-        <v>90.03616812153786</v>
+        <v>395.8081811001083</v>
       </c>
       <c r="E3" t="n">
-        <v>90.03616812153786</v>
+        <v>236.5707260946528</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153786</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153786</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153786</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296057</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017057</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>658.2955231709918</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V3" t="n">
-        <v>468.8757381545071</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W3" t="n">
-        <v>279.4559531380225</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X3" t="n">
-        <v>90.03616812153786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.03616812153786</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="C5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="D5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="E5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="F5" t="n">
-        <v>28.23218154912179</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262245</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T5" t="n">
-        <v>482.8222414097399</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="U5" t="n">
-        <v>293.4024563932553</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="V5" t="n">
-        <v>103.9826713767707</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="W5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="X5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.17768229832527</v>
+        <v>322.4426321268589</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703.6610533428317</v>
+        <v>513.1615076207943</v>
       </c>
       <c r="C6" t="n">
-        <v>529.2080240617047</v>
+        <v>338.7084783396673</v>
       </c>
       <c r="D6" t="n">
-        <v>380.2736144004534</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E6" t="n">
-        <v>221.0361593949979</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F6" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G6" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H6" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546597</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S6" t="n">
-        <v>703.6610533428317</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="T6" t="n">
-        <v>703.6610533428317</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="U6" t="n">
-        <v>703.6610533428317</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="V6" t="n">
-        <v>703.6610533428317</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="W6" t="n">
-        <v>703.6610533428317</v>
+        <v>681.3768446408624</v>
       </c>
       <c r="X6" t="n">
-        <v>703.6610533428317</v>
+        <v>681.3768446408624</v>
       </c>
       <c r="Y6" t="n">
-        <v>703.6610533428317</v>
+        <v>681.3768446408624</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="C7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="D7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="E7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="F7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="G7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="H7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="I7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O7" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="R7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="S7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="T7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="U7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="V7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="W7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="X7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910429</v>
       </c>
     </row>
     <row r="8">
@@ -4801,46 +4801,46 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262247</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S8" t="n">
-        <v>672.2420264262247</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T8" t="n">
-        <v>540.7559564928852</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="U8" t="n">
-        <v>351.3361714764005</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="V8" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W8" t="n">
         <v>161.9163864599159</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.03616812153786</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="C9" t="n">
-        <v>90.03616812153786</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="D9" t="n">
-        <v>90.03616812153786</v>
+        <v>380.2736144004534</v>
       </c>
       <c r="E9" t="n">
-        <v>90.03616812153786</v>
+        <v>221.0361593949979</v>
       </c>
       <c r="F9" t="n">
-        <v>90.03616812153786</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G9" t="n">
-        <v>90.03616812153786</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H9" t="n">
-        <v>90.03616812153786</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017056</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.102348665279</v>
+        <v>680.4910995071084</v>
       </c>
       <c r="S9" t="n">
-        <v>750.102348665279</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="T9" t="n">
-        <v>658.2955231709918</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="U9" t="n">
-        <v>468.8757381545071</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="V9" t="n">
-        <v>279.4559531380225</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="W9" t="n">
-        <v>90.03616812153786</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="X9" t="n">
-        <v>90.03616812153786</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="Y9" t="n">
-        <v>90.03616812153786</v>
+        <v>529.2080240617047</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330558</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330558</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330558</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330558</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.7454270282896</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330558</v>
+        <v>49.45491281910415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2232.598233480556</v>
+        <v>1879.829578210442</v>
       </c>
       <c r="C11" t="n">
-        <v>1863.635716540144</v>
+        <v>1510.86706127003</v>
       </c>
       <c r="D11" t="n">
-        <v>1505.370017933394</v>
+        <v>1152.60136266328</v>
       </c>
       <c r="E11" t="n">
-        <v>1119.581765335149</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>708.5958605455419</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>293.5234103905383</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.58875505237</v>
@@ -5080,13 +5080,13 @@
         <v>3009.337405520489</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X11" t="n">
-        <v>3009.337405520489</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.198073544678</v>
+        <v>2266.429418274563</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>369.960325236792</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>369.960325236792</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>369.960325236792</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>369.960325236792</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>202.2574886115109</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218345</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>481.584566587187</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218345</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V14" t="n">
-        <v>3155.791869823214</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218345</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218345</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
         <v>66.51211643218345</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581906</v>
@@ -5454,34 +5454,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676417</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696244</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260943</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="17">
@@ -5527,10 +5527,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5542,16 +5542,16 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136267</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792697</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W17" t="n">
         <v>2740.719419668211</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.3382468580007</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218345</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U19" t="n">
-        <v>1302.186011766749</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V19" t="n">
-        <v>1302.186011766749</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W19" t="n">
-        <v>1012.768841729788</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X19" t="n">
-        <v>784.7792908317706</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.9867116882405</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1964.273285499504</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1595.310768559093</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>1237.045069952342</v>
+        <v>867.3728191854312</v>
       </c>
       <c r="E20" t="n">
-        <v>851.2568173540981</v>
+        <v>481.584566587187</v>
       </c>
       <c r="F20" t="n">
-        <v>440.2709125644905</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218345</v>
@@ -5764,10 +5764,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5785,19 +5785,19 @@
         <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883009</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539438</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="W20" t="n">
-        <v>2741.012457539438</v>
+        <v>2744.805965033607</v>
       </c>
       <c r="X20" t="n">
-        <v>2741.012457539438</v>
+        <v>2371.340206772527</v>
       </c>
       <c r="Y20" t="n">
-        <v>2350.873125563626</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218345</v>
@@ -5946,16 +5946,16 @@
         <v>1705.527932658019</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.501411349798</v>
+        <v>1511.694724195131</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.501411349798</v>
+        <v>1222.27755415817</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>994.2880032601529</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1995.05083934863</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.088322408219</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D23" t="n">
-        <v>1267.822623801468</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E23" t="n">
-        <v>882.0343712032241</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F23" t="n">
-        <v>471.0484664136165</v>
+        <v>800.777007926328</v>
       </c>
       <c r="G23" t="n">
-        <v>97.0557109240946</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H23" t="n">
-        <v>97.0557109240946</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I23" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J23" t="n">
-        <v>340.696972273463</v>
+        <v>340.6969722734619</v>
       </c>
       <c r="K23" t="n">
-        <v>773.6082731436609</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L23" t="n">
-        <v>1347.57478436688</v>
+        <v>1347.574784366878</v>
       </c>
       <c r="M23" t="n">
-        <v>2017.892557053756</v>
+        <v>2017.892557053753</v>
       </c>
       <c r="N23" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477191</v>
       </c>
       <c r="O23" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373231</v>
       </c>
       <c r="P23" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q23" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109319</v>
       </c>
       <c r="R23" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="S23" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="T23" t="n">
-        <v>4082.554203508917</v>
+        <v>4158.81585377604</v>
       </c>
       <c r="U23" t="n">
-        <v>3829.087312263329</v>
+        <v>4158.81585377604</v>
       </c>
       <c r="V23" t="n">
-        <v>3498.024424919758</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W23" t="n">
-        <v>3145.255769649644</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X23" t="n">
-        <v>2771.790011388564</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y23" t="n">
-        <v>2381.650679412752</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="24">
@@ -6062,22 +6062,22 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H24" t="n">
-        <v>90.06653139491659</v>
+        <v>90.06653139491655</v>
       </c>
       <c r="I24" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J24" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K24" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536224</v>
       </c>
       <c r="L24" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229006</v>
       </c>
       <c r="M24" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N24" t="n">
         <v>2116.334107255739</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1096.55445254542</v>
+        <v>933.4434481466188</v>
       </c>
       <c r="C25" t="n">
-        <v>927.6182696175127</v>
+        <v>764.507265218712</v>
       </c>
       <c r="D25" t="n">
-        <v>777.501630205177</v>
+        <v>634.4543034129375</v>
       </c>
       <c r="E25" t="n">
-        <v>629.5885366227839</v>
+        <v>486.5412098305444</v>
       </c>
       <c r="F25" t="n">
-        <v>482.6985891248735</v>
+        <v>339.651262332634</v>
       </c>
       <c r="G25" t="n">
-        <v>315.3522807193157</v>
+        <v>172.3049539270762</v>
       </c>
       <c r="H25" t="n">
-        <v>172.3049539270763</v>
+        <v>172.3049539270762</v>
       </c>
       <c r="I25" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J25" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953809</v>
       </c>
       <c r="K25" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184962</v>
       </c>
       <c r="L25" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M25" t="n">
         <v>1167.556906375087</v>
@@ -6162,37 +6162,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O25" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P25" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q25" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R25" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="S25" t="n">
-        <v>2107.42638970029</v>
+        <v>2107.426389700289</v>
       </c>
       <c r="T25" t="n">
-        <v>2016.06846729776</v>
+        <v>1887.183122117724</v>
       </c>
       <c r="U25" t="n">
-        <v>1726.985047417207</v>
+        <v>1887.183122117724</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.985047417207</v>
+        <v>1632.498633911837</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.985047417207</v>
+        <v>1343.081463874876</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.995496519189</v>
+        <v>1115.091912976859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.202917375659</v>
+        <v>1115.091912976859</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2324.779380861342</v>
+        <v>2313.424722599436</v>
       </c>
       <c r="C26" t="n">
-        <v>1955.81686392093</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="D26" t="n">
-        <v>1597.55116531418</v>
+        <v>1586.196507052274</v>
       </c>
       <c r="E26" t="n">
-        <v>1211.762912715935</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F26" t="n">
-        <v>800.777007926328</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G26" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H26" t="n">
-        <v>97.0557109240946</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="I26" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J26" t="n">
-        <v>340.6969722734621</v>
+        <v>340.6969722734619</v>
       </c>
       <c r="K26" t="n">
         <v>773.6082731436595</v>
       </c>
       <c r="L26" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.574784366878</v>
       </c>
       <c r="M26" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053753</v>
       </c>
       <c r="N26" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477191</v>
       </c>
       <c r="O26" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.89606037323</v>
       </c>
       <c r="P26" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q26" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109319</v>
       </c>
       <c r="R26" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="S26" t="n">
-        <v>4285.05263310945</v>
+        <v>4192.873891369242</v>
       </c>
       <c r="T26" t="n">
-        <v>4285.05263310945</v>
+        <v>3990.37546176871</v>
       </c>
       <c r="U26" t="n">
-        <v>4158.81585377604</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="V26" t="n">
-        <v>3827.75296643247</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="W26" t="n">
-        <v>3474.984311162355</v>
+        <v>3463.62965290045</v>
       </c>
       <c r="X26" t="n">
-        <v>3101.518552901276</v>
+        <v>3090.16389463937</v>
       </c>
       <c r="Y26" t="n">
-        <v>2711.379220925464</v>
+        <v>2700.024562663558</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H27" t="n">
-        <v>90.06653139491659</v>
+        <v>90.06653139491655</v>
       </c>
       <c r="I27" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J27" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K27" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536224</v>
       </c>
       <c r="L27" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229006</v>
       </c>
       <c r="M27" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N27" t="n">
         <v>2116.334107255739</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.9032244882929</v>
+        <v>1009.950551280532</v>
       </c>
       <c r="C28" t="n">
-        <v>697.9670415603861</v>
+        <v>841.0143683526254</v>
       </c>
       <c r="D28" t="n">
-        <v>547.8504021480503</v>
+        <v>690.8977289402897</v>
       </c>
       <c r="E28" t="n">
-        <v>399.9373085656572</v>
+        <v>542.9846353578965</v>
       </c>
       <c r="F28" t="n">
-        <v>253.0473610677468</v>
+        <v>396.0946878599862</v>
       </c>
       <c r="G28" t="n">
-        <v>85.701052662189</v>
+        <v>228.7483794544283</v>
       </c>
       <c r="H28" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="I28" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J28" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953809</v>
       </c>
       <c r="K28" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184962</v>
       </c>
       <c r="L28" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M28" t="n">
         <v>1167.556906375087</v>
@@ -6399,19 +6399,19 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O28" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P28" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R28" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="S28" t="n">
-        <v>2107.42638970029</v>
+        <v>2107.426389700289</v>
       </c>
       <c r="T28" t="n">
         <v>1887.183122117724</v>
@@ -6420,16 +6420,16 @@
         <v>1887.183122117724</v>
       </c>
       <c r="V28" t="n">
-        <v>1632.498633911837</v>
+        <v>1709.00573704575</v>
       </c>
       <c r="W28" t="n">
-        <v>1497.33381936008</v>
+        <v>1419.588567008789</v>
       </c>
       <c r="X28" t="n">
-        <v>1269.344268462063</v>
+        <v>1191.599016110772</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.551689318533</v>
+        <v>1191.599016110772</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2255.640752878539</v>
+        <v>2023.981057245012</v>
       </c>
       <c r="C29" t="n">
-        <v>1886.678235938127</v>
+        <v>1655.0185403046</v>
       </c>
       <c r="D29" t="n">
-        <v>1528.412537331377</v>
+        <v>1296.75284169785</v>
       </c>
       <c r="E29" t="n">
-        <v>1142.624284733133</v>
+        <v>910.9645890996053</v>
       </c>
       <c r="F29" t="n">
-        <v>731.638379943525</v>
+        <v>499.9786843099977</v>
       </c>
       <c r="G29" t="n">
-        <v>317.3607482957163</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="H29" t="n">
-        <v>97.05571092409458</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="I29" t="n">
         <v>85.70105266218899</v>
       </c>
       <c r="J29" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K29" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L29" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M29" t="n">
         <v>2017.892557053754</v>
@@ -6481,7 +6481,7 @@
         <v>3337.896060373232</v>
       </c>
       <c r="P29" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q29" t="n">
         <v>4177.101606109321</v>
@@ -6496,19 +6496,19 @@
         <v>3990.375461768711</v>
       </c>
       <c r="U29" t="n">
-        <v>3736.908570523123</v>
+        <v>3858.01753015971</v>
       </c>
       <c r="V29" t="n">
-        <v>3405.845683179552</v>
+        <v>3526.954642816139</v>
       </c>
       <c r="W29" t="n">
-        <v>3405.845683179552</v>
+        <v>3174.185987546025</v>
       </c>
       <c r="X29" t="n">
-        <v>3032.379924918473</v>
+        <v>2800.720229284945</v>
       </c>
       <c r="Y29" t="n">
-        <v>2642.240592942661</v>
+        <v>2410.580897309133</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H30" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I30" t="n">
         <v>85.70105266218899</v>
       </c>
       <c r="J30" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K30" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536225</v>
       </c>
       <c r="L30" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229007</v>
       </c>
       <c r="M30" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N30" t="n">
         <v>2116.334107255739</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349.7677971050734</v>
+        <v>803.3904863408444</v>
       </c>
       <c r="C31" t="n">
-        <v>349.7677971050734</v>
+        <v>634.4543034129375</v>
       </c>
       <c r="D31" t="n">
-        <v>349.7677971050734</v>
+        <v>634.4543034129375</v>
       </c>
       <c r="E31" t="n">
-        <v>349.7677971050734</v>
+        <v>486.5412098305444</v>
       </c>
       <c r="F31" t="n">
-        <v>253.0473610677468</v>
+        <v>339.6512623326341</v>
       </c>
       <c r="G31" t="n">
-        <v>85.70105266218899</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="H31" t="n">
-        <v>85.70105266218899</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I31" t="n">
         <v>85.70105266218899</v>
@@ -6624,10 +6624,10 @@
         <v>155.528619995381</v>
       </c>
       <c r="K31" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184963</v>
       </c>
       <c r="L31" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M31" t="n">
         <v>1167.556906375087</v>
@@ -6636,37 +6636,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O31" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P31" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R31" t="n">
-        <v>2219.099307335915</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="S31" t="n">
-        <v>2033.626737682827</v>
+        <v>2107.426389700289</v>
       </c>
       <c r="T31" t="n">
-        <v>1813.383470100262</v>
+        <v>1887.183122117724</v>
       </c>
       <c r="U31" t="n">
-        <v>1524.300050219708</v>
+        <v>1796.27427462524</v>
       </c>
       <c r="V31" t="n">
-        <v>1269.615562013821</v>
+        <v>1541.589786419353</v>
       </c>
       <c r="W31" t="n">
-        <v>980.1983919768606</v>
+        <v>1252.172616382392</v>
       </c>
       <c r="X31" t="n">
-        <v>752.2088410788433</v>
+        <v>1024.183065484375</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.4162619353132</v>
+        <v>803.3904863408444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2105.370527208957</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.408010268546</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D32" t="n">
-        <v>1378.142311661795</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E32" t="n">
-        <v>992.3540590635509</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F32" t="n">
-        <v>581.3681542739434</v>
+        <v>800.777007926328</v>
       </c>
       <c r="G32" t="n">
-        <v>386.4993762785192</v>
+        <v>386.4993762785193</v>
       </c>
       <c r="H32" t="n">
-        <v>97.05571092409458</v>
+        <v>97.05571092409461</v>
       </c>
       <c r="I32" t="n">
         <v>85.70105266218899</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K32" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436597</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M32" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N32" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O32" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P32" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q32" t="n">
         <v>4177.101606109321</v>
@@ -6730,22 +6730,22 @@
         <v>4192.873891369244</v>
       </c>
       <c r="T32" t="n">
-        <v>4192.873891369244</v>
+        <v>4081.219857678058</v>
       </c>
       <c r="U32" t="n">
-        <v>3939.407000123656</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="V32" t="n">
-        <v>3608.344112780085</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W32" t="n">
-        <v>3255.575457509971</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X32" t="n">
-        <v>2882.109699248891</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y32" t="n">
-        <v>2491.970367273079</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H33" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I33" t="n">
         <v>85.70105266218899</v>
       </c>
       <c r="J33" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K33" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536225</v>
       </c>
       <c r="L33" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229007</v>
       </c>
       <c r="M33" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N33" t="n">
         <v>2116.334107255739</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>349.7677971050734</v>
+        <v>632.2015572296157</v>
       </c>
       <c r="C34" t="n">
-        <v>180.8316141771665</v>
+        <v>463.2653743017088</v>
       </c>
       <c r="D34" t="n">
-        <v>180.8316141771665</v>
+        <v>463.2653743017088</v>
       </c>
       <c r="E34" t="n">
-        <v>180.8316141771665</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="F34" t="n">
-        <v>180.8316141771665</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="G34" t="n">
-        <v>85.70105266218899</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H34" t="n">
-        <v>85.70105266218899</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I34" t="n">
         <v>85.70105266218899</v>
@@ -6861,10 +6861,10 @@
         <v>155.528619995381</v>
       </c>
       <c r="K34" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184963</v>
       </c>
       <c r="L34" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M34" t="n">
         <v>1167.556906375087</v>
@@ -6873,37 +6873,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O34" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P34" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q34" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R34" t="n">
         <v>2219.099307335915</v>
       </c>
       <c r="S34" t="n">
-        <v>2033.626737682827</v>
+        <v>2219.099307335915</v>
       </c>
       <c r="T34" t="n">
-        <v>1813.383470100262</v>
+        <v>1998.856039753349</v>
       </c>
       <c r="U34" t="n">
-        <v>1524.300050219708</v>
+        <v>1709.772619872796</v>
       </c>
       <c r="V34" t="n">
-        <v>1269.615562013821</v>
+        <v>1455.088131666909</v>
       </c>
       <c r="W34" t="n">
-        <v>980.1983919768606</v>
+        <v>1165.670961629948</v>
       </c>
       <c r="X34" t="n">
-        <v>752.2088410788433</v>
+        <v>1034.642601203386</v>
       </c>
       <c r="Y34" t="n">
-        <v>531.4162619353132</v>
+        <v>813.8500220598554</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2035.335715506917</v>
+        <v>1913.793476071734</v>
       </c>
       <c r="C35" t="n">
-        <v>1666.373198566506</v>
+        <v>1544.830959131323</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.107499959755</v>
+        <v>1186.565260524572</v>
       </c>
       <c r="E35" t="n">
-        <v>922.3192473615109</v>
+        <v>800.777007926328</v>
       </c>
       <c r="F35" t="n">
-        <v>511.3333425719034</v>
+        <v>800.777007926328</v>
       </c>
       <c r="G35" t="n">
-        <v>97.0557109240946</v>
+        <v>386.4993762785193</v>
       </c>
       <c r="H35" t="n">
-        <v>97.0557109240946</v>
+        <v>97.05571092409461</v>
       </c>
       <c r="I35" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="J35" t="n">
         <v>340.6969722734621</v>
@@ -6955,34 +6955,34 @@
         <v>3337.896060373232</v>
       </c>
       <c r="P35" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q35" t="n">
         <v>4177.101606109321</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109449</v>
       </c>
       <c r="S35" t="n">
-        <v>4285.05263310945</v>
+        <v>4203.795269832554</v>
       </c>
       <c r="T35" t="n">
-        <v>4122.839079667204</v>
+        <v>4001.296840232021</v>
       </c>
       <c r="U35" t="n">
-        <v>3869.372188421616</v>
+        <v>3747.829948986433</v>
       </c>
       <c r="V35" t="n">
-        <v>3538.309301078045</v>
+        <v>3416.767061642862</v>
       </c>
       <c r="W35" t="n">
-        <v>3185.540645807931</v>
+        <v>3063.998406372748</v>
       </c>
       <c r="X35" t="n">
-        <v>2812.074887546851</v>
+        <v>2690.532648111668</v>
       </c>
       <c r="Y35" t="n">
-        <v>2421.935555571039</v>
+        <v>2300.393316135856</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I36" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="J36" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K36" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536225</v>
       </c>
       <c r="L36" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229007</v>
       </c>
       <c r="M36" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N36" t="n">
         <v>2116.334107255739</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.4402766703994</v>
+        <v>638.8512169856263</v>
       </c>
       <c r="C37" t="n">
-        <v>380.5040937424925</v>
+        <v>469.9150340577194</v>
       </c>
       <c r="D37" t="n">
-        <v>380.5040937424925</v>
+        <v>319.7983946453836</v>
       </c>
       <c r="E37" t="n">
-        <v>232.5910001600994</v>
+        <v>171.8853010629905</v>
       </c>
       <c r="F37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="G37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="H37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="I37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218899</v>
       </c>
       <c r="J37" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K37" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184963</v>
       </c>
       <c r="L37" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M37" t="n">
         <v>1167.556906375087</v>
@@ -7110,37 +7110,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O37" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P37" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q37" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R37" t="n">
-        <v>2292.898959353378</v>
+        <v>2219.099307335915</v>
       </c>
       <c r="S37" t="n">
-        <v>2107.42638970029</v>
+        <v>2033.626737682827</v>
       </c>
       <c r="T37" t="n">
-        <v>2013.055949665588</v>
+        <v>1813.383470100261</v>
       </c>
       <c r="U37" t="n">
-        <v>1723.972529785034</v>
+        <v>1813.383470100261</v>
       </c>
       <c r="V37" t="n">
-        <v>1469.288041579147</v>
+        <v>1558.698981894374</v>
       </c>
       <c r="W37" t="n">
-        <v>1179.870871542187</v>
+        <v>1269.281811857413</v>
       </c>
       <c r="X37" t="n">
-        <v>951.8813206441693</v>
+        <v>1041.292260959396</v>
       </c>
       <c r="Y37" t="n">
-        <v>731.0887415006391</v>
+        <v>820.499681815866</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1910.501749213533</v>
+        <v>2313.424722599436</v>
       </c>
       <c r="C38" t="n">
-        <v>1541.539232273121</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="D38" t="n">
-        <v>1183.273533666371</v>
+        <v>1586.196507052274</v>
       </c>
       <c r="E38" t="n">
-        <v>797.4852810681267</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F38" t="n">
-        <v>386.4993762785192</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G38" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H38" t="n">
-        <v>97.05571092409458</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="I38" t="n">
-        <v>85.70105266218899</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J38" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734619</v>
       </c>
       <c r="K38" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L38" t="n">
         <v>1347.574784366878</v>
       </c>
       <c r="M38" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053753</v>
       </c>
       <c r="N38" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477191</v>
       </c>
       <c r="O38" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.89606037323</v>
       </c>
       <c r="P38" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q38" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109319</v>
       </c>
       <c r="R38" t="n">
-        <v>4285.052633109449</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="S38" t="n">
-        <v>4192.873891369244</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="T38" t="n">
-        <v>3990.375461768711</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="U38" t="n">
-        <v>3744.538222128232</v>
+        <v>4031.585741863859</v>
       </c>
       <c r="V38" t="n">
-        <v>3413.475334784661</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="W38" t="n">
-        <v>3060.706679514547</v>
+        <v>3463.62965290045</v>
       </c>
       <c r="X38" t="n">
-        <v>2687.240921253467</v>
+        <v>3090.16389463937</v>
       </c>
       <c r="Y38" t="n">
-        <v>2297.101589277655</v>
+        <v>2700.024562663558</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H39" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491655</v>
       </c>
       <c r="I39" t="n">
-        <v>85.70105266218899</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J39" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K39" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536224</v>
       </c>
       <c r="L39" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229006</v>
       </c>
       <c r="M39" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N39" t="n">
         <v>2116.334107255739</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.9032244882929</v>
+        <v>806.6171782552698</v>
       </c>
       <c r="C40" t="n">
-        <v>697.9670415603861</v>
+        <v>637.6809953273629</v>
       </c>
       <c r="D40" t="n">
-        <v>547.8504021480503</v>
+        <v>487.5643559150271</v>
       </c>
       <c r="E40" t="n">
-        <v>399.9373085656572</v>
+        <v>339.651262332634</v>
       </c>
       <c r="F40" t="n">
-        <v>253.0473610677468</v>
+        <v>339.651262332634</v>
       </c>
       <c r="G40" t="n">
-        <v>85.70105266218899</v>
+        <v>172.3049539270762</v>
       </c>
       <c r="H40" t="n">
-        <v>85.70105266218899</v>
+        <v>172.3049539270762</v>
       </c>
       <c r="I40" t="n">
-        <v>85.70105266218899</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J40" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953809</v>
       </c>
       <c r="K40" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184962</v>
       </c>
       <c r="L40" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M40" t="n">
         <v>1167.556906375087</v>
@@ -7347,37 +7347,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O40" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P40" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q40" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R40" t="n">
-        <v>2292.898959353378</v>
+        <v>2219.099307335915</v>
       </c>
       <c r="S40" t="n">
-        <v>2292.898959353378</v>
+        <v>2033.626737682827</v>
       </c>
       <c r="T40" t="n">
-        <v>2072.655691770812</v>
+        <v>1813.383470100261</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.572271890259</v>
+        <v>1813.383470100261</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.572271890259</v>
+        <v>1558.698981894374</v>
       </c>
       <c r="W40" t="n">
-        <v>1494.155101853298</v>
+        <v>1437.047773127057</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.344268462063</v>
+        <v>1209.05822222904</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.551689318533</v>
+        <v>988.2656430855095</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.779380861342</v>
+        <v>2313.424722599436</v>
       </c>
       <c r="C41" t="n">
-        <v>1955.81686392093</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="D41" t="n">
-        <v>1597.55116531418</v>
+        <v>1586.196507052274</v>
       </c>
       <c r="E41" t="n">
-        <v>1211.762912715935</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F41" t="n">
-        <v>800.777007926328</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G41" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H41" t="n">
-        <v>97.0557109240946</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="I41" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J41" t="n">
-        <v>340.6969722734621</v>
+        <v>340.6969722734619</v>
       </c>
       <c r="K41" t="n">
         <v>773.6082731436595</v>
       </c>
       <c r="L41" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.574784366878</v>
       </c>
       <c r="M41" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053753</v>
       </c>
       <c r="N41" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477191</v>
       </c>
       <c r="O41" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.89606037323</v>
       </c>
       <c r="P41" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280479</v>
       </c>
       <c r="Q41" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109319</v>
       </c>
       <c r="R41" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="S41" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109447</v>
       </c>
       <c r="T41" t="n">
-        <v>4285.05263310945</v>
+        <v>4082.554203508914</v>
       </c>
       <c r="U41" t="n">
-        <v>4158.81585377604</v>
+        <v>3829.087312263326</v>
       </c>
       <c r="V41" t="n">
-        <v>3827.75296643247</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="W41" t="n">
-        <v>3474.984311162355</v>
+        <v>3463.62965290045</v>
       </c>
       <c r="X41" t="n">
-        <v>3101.518552901276</v>
+        <v>3090.16389463937</v>
       </c>
       <c r="Y41" t="n">
-        <v>2711.379220925464</v>
+        <v>2700.024562663558</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H42" t="n">
-        <v>90.06653139491659</v>
+        <v>90.06653139491655</v>
       </c>
       <c r="I42" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J42" t="n">
-        <v>218.7570285287381</v>
+        <v>218.757028528738</v>
       </c>
       <c r="K42" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536224</v>
       </c>
       <c r="L42" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229006</v>
       </c>
       <c r="M42" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167679</v>
       </c>
       <c r="N42" t="n">
-        <v>2116.334107255739</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O42" t="n">
         <v>2555.282664596279</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.7573480030908</v>
+        <v>720.0132769903825</v>
       </c>
       <c r="C43" t="n">
-        <v>408.8211650751839</v>
+        <v>551.0770940624756</v>
       </c>
       <c r="D43" t="n">
-        <v>396.0946878599862</v>
+        <v>400.9604546501399</v>
       </c>
       <c r="E43" t="n">
-        <v>396.0946878599862</v>
+        <v>253.0473610677467</v>
       </c>
       <c r="F43" t="n">
-        <v>396.0946878599862</v>
+        <v>253.0473610677467</v>
       </c>
       <c r="G43" t="n">
-        <v>228.7483794544284</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="H43" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="I43" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218894</v>
       </c>
       <c r="J43" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953809</v>
       </c>
       <c r="K43" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184962</v>
       </c>
       <c r="L43" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896923</v>
       </c>
       <c r="M43" t="n">
         <v>1167.556906375087</v>
@@ -7584,13 +7584,13 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O43" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921625</v>
       </c>
       <c r="P43" t="n">
-        <v>2186.028388642897</v>
+        <v>2186.028388642896</v>
       </c>
       <c r="Q43" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353377</v>
       </c>
       <c r="R43" t="n">
         <v>2219.099307335915</v>
@@ -7599,22 +7599,22 @@
         <v>2033.626737682827</v>
       </c>
       <c r="T43" t="n">
-        <v>1813.383470100262</v>
+        <v>1894.545530105017</v>
       </c>
       <c r="U43" t="n">
-        <v>1524.300050219708</v>
+        <v>1894.545530105017</v>
       </c>
       <c r="V43" t="n">
-        <v>1269.615562013821</v>
+        <v>1639.86104189913</v>
       </c>
       <c r="W43" t="n">
-        <v>980.1983919768606</v>
+        <v>1350.44387186217</v>
       </c>
       <c r="X43" t="n">
-        <v>980.1983919768606</v>
+        <v>1122.454320964152</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.4058128333305</v>
+        <v>901.6617418206222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2324.779380861342</v>
+        <v>2156.338988854012</v>
       </c>
       <c r="C44" t="n">
-        <v>1955.81686392093</v>
+        <v>1787.3764719136</v>
       </c>
       <c r="D44" t="n">
-        <v>1597.55116531418</v>
+        <v>1429.11077330685</v>
       </c>
       <c r="E44" t="n">
-        <v>1211.762912715935</v>
+        <v>1043.322520708605</v>
       </c>
       <c r="F44" t="n">
-        <v>800.777007926328</v>
+        <v>632.3366159189979</v>
       </c>
       <c r="G44" t="n">
-        <v>386.4993762785192</v>
+        <v>218.0589842711892</v>
       </c>
       <c r="H44" t="n">
-        <v>97.05571092409458</v>
+        <v>85.70105266218896</v>
       </c>
       <c r="I44" t="n">
         <v>85.70105266218896</v>
       </c>
       <c r="J44" t="n">
-        <v>340.6969722734619</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K44" t="n">
         <v>773.6082731436595</v>
@@ -7657,7 +7657,7 @@
         <v>1347.574784366878</v>
       </c>
       <c r="M44" t="n">
-        <v>2017.892557053753</v>
+        <v>2017.892557053754</v>
       </c>
       <c r="N44" t="n">
         <v>2703.670580477191</v>
@@ -7675,25 +7675,25 @@
         <v>4285.052633109448</v>
       </c>
       <c r="S44" t="n">
-        <v>4285.052633109448</v>
+        <v>4192.873891369243</v>
       </c>
       <c r="T44" t="n">
-        <v>4285.052633109448</v>
+        <v>3990.37546176871</v>
       </c>
       <c r="U44" t="n">
-        <v>4158.81585377604</v>
+        <v>3990.37546176871</v>
       </c>
       <c r="V44" t="n">
-        <v>3827.75296643247</v>
+        <v>3659.31257442514</v>
       </c>
       <c r="W44" t="n">
-        <v>3474.984311162355</v>
+        <v>3306.543919155025</v>
       </c>
       <c r="X44" t="n">
-        <v>3101.518552901276</v>
+        <v>2933.078160893946</v>
       </c>
       <c r="Y44" t="n">
-        <v>2711.379220925464</v>
+        <v>2542.938828918134</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H45" t="n">
-        <v>90.06653139491657</v>
+        <v>90.06653139491658</v>
       </c>
       <c r="I45" t="n">
         <v>85.70105266218896</v>
       </c>
       <c r="J45" t="n">
-        <v>218.757028528738</v>
+        <v>218.7570285287379</v>
       </c>
       <c r="K45" t="n">
-        <v>524.3257088536224</v>
+        <v>524.3257088536222</v>
       </c>
       <c r="L45" t="n">
-        <v>981.5230502229006</v>
+        <v>981.5230502229003</v>
       </c>
       <c r="M45" t="n">
         <v>1534.407651167679</v>
       </c>
       <c r="N45" t="n">
-        <v>2116.334107255739</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O45" t="n">
         <v>2555.282664596279</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.9032244882928</v>
+        <v>1096.55445254542</v>
       </c>
       <c r="C46" t="n">
-        <v>697.967041560386</v>
+        <v>927.6182696175127</v>
       </c>
       <c r="D46" t="n">
-        <v>547.8504021480502</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E46" t="n">
-        <v>399.9373085656571</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F46" t="n">
-        <v>253.0473610677467</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G46" t="n">
-        <v>85.70105266218896</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H46" t="n">
-        <v>85.70105266218896</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I46" t="n">
         <v>85.70105266218896</v>
@@ -7809,16 +7809,16 @@
         <v>155.5286199953809</v>
       </c>
       <c r="K46" t="n">
-        <v>400.1136000184963</v>
+        <v>400.1136000184962</v>
       </c>
       <c r="L46" t="n">
-        <v>768.6246013896923</v>
+        <v>768.6246013896921</v>
       </c>
       <c r="M46" t="n">
-        <v>1167.556906375087</v>
+        <v>1167.556906375086</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227325</v>
       </c>
       <c r="O46" t="n">
         <v>1911.158517921625</v>
@@ -7839,19 +7839,19 @@
         <v>2292.898959353377</v>
       </c>
       <c r="U46" t="n">
-        <v>2003.815539472824</v>
+        <v>2271.086705660054</v>
       </c>
       <c r="V46" t="n">
-        <v>1749.131051266937</v>
+        <v>2016.402217454167</v>
       </c>
       <c r="W46" t="n">
-        <v>1459.713881229977</v>
+        <v>1726.985047417207</v>
       </c>
       <c r="X46" t="n">
-        <v>1231.724330331959</v>
+        <v>1498.995496519189</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.551689318532</v>
+        <v>1278.202917375659</v>
       </c>
     </row>
   </sheetData>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>124.4997876986416</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>111.4435131414751</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>10.36709645678658</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>211.6739935392753</v>
       </c>
       <c r="V14" t="n">
-        <v>159.6364462020364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696557</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>54.43613727213454</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>21.19860275476319</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>207.1434510541721</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>182.1679443159939</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>165.6045145247443</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>82.47744725539542</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.2442826665052</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24186,16 +24186,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>27.3813872286884</v>
+        <v>60.24276694556843</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39.88202739670402</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>75.49903376445471</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>19.86304083049569</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>127.5964917282355</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>125.9578107930566</v>
+        <v>78.69484027096823</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.1925856817478</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>75.74203210257426</v>
       </c>
       <c r="W28" t="n">
-        <v>152.7098319303516</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>68.44724170297479</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>119.8978700402209</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>49.66781634597788</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I31" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.06165549728797</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.1928266641886</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>217.2147651158606</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>200.4734453045276</v>
+        <v>89.93595195025324</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.49358942167446</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H34" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>95.99157856673997</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.25695432280244</v>
+        <v>10.81216467867694</v>
       </c>
       <c r="T35" t="n">
-        <v>39.88202739670413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>60.09864210613776</v>
       </c>
       <c r="G37" t="n">
         <v>165.6728453215022</v>
@@ -25332,7 +25332,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I37" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.6140992723851</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.1348553313306</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U38" t="n">
-        <v>7.553355089057192</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>114.7166991137732</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I40" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>166.0883016569469</v>
       </c>
       <c r="X40" t="n">
-        <v>3.146930331714003</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.24111167928658</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280246</v>
       </c>
       <c r="T41" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>125.9578107930566</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>315.1901444183006</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>136.0162605751667</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I43" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>80.35043940470842</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>155.5148764079701</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.24111167928663</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.25695432280246</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>125.9578107930584</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.73786225223841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.06165549728797</v>
+        <v>73.06165549728799</v>
       </c>
       <c r="S46" t="n">
         <v>183.6178439565572</v>
@@ -26079,7 +26079,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>264.5984545253577</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.24373874880231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764222.328931309</v>
+        <v>764222.3289313089</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764222.3289313092</v>
+        <v>764222.328931309</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861083.8623149974</v>
+        <v>861083.8623149969</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861083.8623149974</v>
+        <v>861083.862314997</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861083.862314997</v>
+        <v>861083.8623149971</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861083.862314997</v>
+        <v>861083.8623149971</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861083.8623149972</v>
+        <v>861083.8623149971</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861083.8623149974</v>
+        <v>861083.8623149971</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861083.8623149971</v>
+        <v>861083.862314997</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621969</v>
+        <v>443296.228662197</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.2286621968</v>
+        <v>443296.228662197</v>
       </c>
       <c r="G2" t="n">
         <v>443296.228662197</v>
       </c>
       <c r="H2" t="n">
-        <v>443296.228662197</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="I2" t="n">
         <v>500532.5892980128</v>
@@ -26340,10 +26340,10 @@
         <v>500532.5892980128</v>
       </c>
       <c r="K2" t="n">
+        <v>500532.5892980128</v>
+      </c>
+      <c r="L2" t="n">
         <v>500532.5892980129</v>
-      </c>
-      <c r="L2" t="n">
-        <v>500532.5892980128</v>
       </c>
       <c r="M2" t="n">
         <v>500532.5892980128</v>
@@ -26352,10 +26352,10 @@
         <v>500532.5892980128</v>
       </c>
       <c r="O2" t="n">
-        <v>500532.5892980129</v>
+        <v>500532.5892980127</v>
       </c>
       <c r="P2" t="n">
-        <v>500532.5892980129</v>
+        <v>500532.5892980128</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.643633668</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211122.8311070112</v>
+        <v>211122.8311070109</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678776</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="D4" t="n">
         <v>278536.5648341299</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
@@ -26490,28 +26490,28 @@
         <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548891</v>
       </c>
       <c r="J5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548891</v>
       </c>
       <c r="K5" t="n">
-        <v>93156.93313548896</v>
+        <v>93156.93313548894</v>
       </c>
       <c r="L5" t="n">
-        <v>93156.93313548896</v>
+        <v>93156.93313548894</v>
       </c>
       <c r="M5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548894</v>
       </c>
       <c r="N5" t="n">
-        <v>93156.93313548896</v>
+        <v>93156.93313548891</v>
       </c>
       <c r="O5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548891</v>
       </c>
       <c r="P5" t="n">
-        <v>93156.93313548894</v>
+        <v>93156.93313548893</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548046</v>
+        <v>-393202.1173548049</v>
       </c>
       <c r="C6" t="n">
-        <v>198154.7851660404</v>
+        <v>198154.7851660408</v>
       </c>
       <c r="D6" t="n">
-        <v>198154.7851660405</v>
+        <v>198154.7851660407</v>
       </c>
       <c r="E6" t="n">
-        <v>-276270.8996531154</v>
+        <v>-273142.3292848602</v>
       </c>
       <c r="F6" t="n">
-        <v>350863.7439805522</v>
+        <v>353992.3143488075</v>
       </c>
       <c r="G6" t="n">
-        <v>350863.7439805528</v>
+        <v>353992.3143488076</v>
       </c>
       <c r="H6" t="n">
-        <v>350863.7439805527</v>
+        <v>353992.3143488075</v>
       </c>
       <c r="I6" t="n">
-        <v>180203.9421452672</v>
+        <v>181351.2538761289</v>
       </c>
       <c r="J6" t="n">
-        <v>342261.8285237339</v>
+        <v>343409.1402545951</v>
       </c>
       <c r="K6" t="n">
-        <v>391326.7732522785</v>
+        <v>392474.0849831396</v>
       </c>
       <c r="L6" t="n">
-        <v>391326.7732522784</v>
+        <v>392474.0849831398</v>
       </c>
       <c r="M6" t="n">
-        <v>230870.3313844008</v>
+        <v>232017.6431152622</v>
       </c>
       <c r="N6" t="n">
-        <v>391326.7732522784</v>
+        <v>392474.0849831399</v>
       </c>
       <c r="O6" t="n">
-        <v>391326.7732522784</v>
+        <v>392474.0849831396</v>
       </c>
       <c r="P6" t="n">
-        <v>391326.7732522786</v>
+        <v>392474.0849831397</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,25 +26758,25 @@
         <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="J3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="K3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="L3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="M3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="N3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="O3" t="n">
-        <v>1285.510693221346</v>
+        <v>1285.510693221345</v>
       </c>
       <c r="P3" t="n">
         <v>1285.510693221345</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022931</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.306759680394</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7339926280472</v>
+        <v>195.733992628047</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>239.8617028750693</v>
+        <v>239.8617028750687</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359735</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5324424741441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>311.2449537266808</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>135.9355223133019</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>134.9750111707465</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310549</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459982</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715769</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>133.4296435385074</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.5806260587831</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>290.0354536060137</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988705</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.6436733987106</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038152</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>281.124029529752</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -27715,10 +27715,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846323</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S6" t="n">
-        <v>103.7933623217269</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>183.6567341767462</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>146.9979079094025</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -27797,7 +27797,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825421</v>
+        <v>37.06597233494195</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159729</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>83.27267182220064</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871055</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038151</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>190.3199855071399</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27937,13 +27937,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846323</v>
+        <v>3.517758961873852</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>104.5208405526569</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377114</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310549</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459982</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>146.9979079094021</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
@@ -28034,10 +28034,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402857</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709392</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.47009429716312</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820367</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
@@ -32001,31 +32001,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
         <v>19.17787942451121</v>
@@ -32074,43 +32074,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,19 +32153,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883116</v>
@@ -32180,13 +32180,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H23" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I23" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J23" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K23" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L23" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M23" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N23" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O23" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P23" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q23" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R23" t="n">
         <v>324.6269792284035</v>
@@ -32739,10 +32739,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T23" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U23" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H24" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I24" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J24" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K24" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L24" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M24" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N24" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O24" t="n">
         <v>585.978625596505</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T24" t="n">
         <v>11.14513516104166</v>
@@ -32858,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H25" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I25" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J25" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K25" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L25" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M25" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N25" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O25" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P25" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q25" t="n">
         <v>194.1121146764232</v>
@@ -32894,10 +32894,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S25" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T25" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U25" t="n">
         <v>0.1264436747430833</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H26" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I26" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J26" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K26" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L26" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M26" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N26" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O26" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P26" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q26" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R26" t="n">
         <v>324.6269792284035</v>
@@ -32976,10 +32976,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T26" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U26" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H27" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I27" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J27" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K27" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L27" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N27" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O27" t="n">
         <v>585.978625596505</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T27" t="n">
         <v>11.14513516104166</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H28" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J28" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K28" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L28" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M28" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N28" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O28" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P28" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q28" t="n">
         <v>194.1121146764232</v>
@@ -33131,10 +33131,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S28" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T28" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U28" t="n">
         <v>0.1264436747430833</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H29" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I29" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J29" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K29" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L29" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M29" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N29" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O29" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P29" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q29" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R29" t="n">
         <v>324.6269792284035</v>
@@ -33213,10 +33213,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T29" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U29" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H30" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I30" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J30" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K30" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L30" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N30" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O30" t="n">
         <v>585.978625596505</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T30" t="n">
         <v>11.14513516104166</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H31" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I31" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J31" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K31" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L31" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M31" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N31" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O31" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P31" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q31" t="n">
         <v>194.1121146764232</v>
@@ -33368,10 +33368,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S31" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T31" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U31" t="n">
         <v>0.1264436747430833</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H32" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I32" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J32" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K32" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L32" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M32" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N32" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O32" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P32" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q32" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R32" t="n">
         <v>324.6269792284035</v>
@@ -33450,10 +33450,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T32" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U32" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H33" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I33" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J33" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K33" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L33" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M33" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N33" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O33" t="n">
         <v>585.978625596505</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T33" t="n">
         <v>11.14513516104166</v>
@@ -33569,34 +33569,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H34" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I34" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J34" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K34" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L34" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M34" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N34" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O34" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P34" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q34" t="n">
         <v>194.1121146764232</v>
@@ -33605,10 +33605,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S34" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T34" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U34" t="n">
         <v>0.1264436747430833</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H35" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I35" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J35" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K35" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L35" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M35" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N35" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O35" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P35" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q35" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R35" t="n">
         <v>324.6269792284035</v>
@@ -33687,10 +33687,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T35" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U35" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H36" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I36" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J36" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K36" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L36" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M36" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N36" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O36" t="n">
         <v>585.978625596505</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T36" t="n">
         <v>11.14513516104166</v>
@@ -33806,34 +33806,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H37" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J37" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K37" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L37" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M37" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N37" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O37" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P37" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q37" t="n">
         <v>194.1121146764232</v>
@@ -33842,10 +33842,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S37" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T37" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U37" t="n">
         <v>0.1264436747430833</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H38" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I38" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J38" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K38" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L38" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M38" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N38" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O38" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P38" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q38" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R38" t="n">
         <v>324.6269792284035</v>
@@ -33924,10 +33924,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T38" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U38" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H39" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I39" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J39" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K39" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L39" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M39" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N39" t="n">
-        <v>719.1462131823829</v>
+        <v>719.1462131823828</v>
       </c>
       <c r="O39" t="n">
         <v>585.978625596505</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T39" t="n">
         <v>11.14513516104166</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H40" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J40" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K40" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L40" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M40" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N40" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O40" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P40" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q40" t="n">
         <v>194.1121146764232</v>
@@ -34079,10 +34079,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S40" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T40" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U40" t="n">
         <v>0.1264436747430833</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.167882183804401</v>
+        <v>5.1678821838044</v>
       </c>
       <c r="H41" t="n">
         <v>52.92557341488683</v>
       </c>
       <c r="I41" t="n">
-        <v>199.2347778911194</v>
+        <v>199.2347778911193</v>
       </c>
       <c r="J41" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976691</v>
       </c>
       <c r="K41" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381095</v>
       </c>
       <c r="L41" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207135</v>
       </c>
       <c r="M41" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069451</v>
       </c>
       <c r="N41" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616793</v>
       </c>
       <c r="O41" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964742</v>
       </c>
       <c r="P41" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838031</v>
       </c>
       <c r="Q41" t="n">
-        <v>558.0731371763079</v>
+        <v>558.0731371763078</v>
       </c>
       <c r="R41" t="n">
         <v>324.6269792284035</v>
@@ -34161,10 +34161,10 @@
         <v>117.7631152634429</v>
       </c>
       <c r="T41" t="n">
-        <v>22.62240425960378</v>
+        <v>22.62240425960377</v>
       </c>
       <c r="U41" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043519</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362894</v>
       </c>
       <c r="H42" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276795</v>
       </c>
       <c r="I42" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459966</v>
       </c>
       <c r="J42" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K42" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257574</v>
       </c>
       <c r="L42" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124784</v>
       </c>
       <c r="M42" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056332</v>
       </c>
       <c r="N42" t="n">
-        <v>719.1462131823829</v>
+        <v>647.2465503338094</v>
       </c>
       <c r="O42" t="n">
-        <v>585.978625596505</v>
+        <v>657.8782884450786</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200372</v>
       </c>
       <c r="T42" t="n">
         <v>11.14513516104166</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956524</v>
       </c>
       <c r="H43" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I43" t="n">
-        <v>69.71261267501988</v>
+        <v>69.71261267501987</v>
       </c>
       <c r="J43" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K43" t="n">
-        <v>269.3250272027671</v>
+        <v>269.325027202767</v>
       </c>
       <c r="L43" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580637</v>
       </c>
       <c r="M43" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658304</v>
       </c>
       <c r="N43" t="n">
-        <v>354.7377294917201</v>
+        <v>354.73772949172</v>
       </c>
       <c r="O43" t="n">
         <v>327.6577091509096</v>
       </c>
       <c r="P43" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969962</v>
       </c>
       <c r="Q43" t="n">
         <v>194.1121146764232</v>
@@ -34316,10 +34316,10 @@
         <v>104.2317358798815</v>
       </c>
       <c r="S43" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041505</v>
       </c>
       <c r="T43" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541511</v>
       </c>
       <c r="U43" t="n">
         <v>0.1264436747430833</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.1678821838044</v>
+        <v>5.167882183804399</v>
       </c>
       <c r="H44" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488681</v>
       </c>
       <c r="I44" t="n">
         <v>199.2347778911193</v>
       </c>
       <c r="J44" t="n">
-        <v>438.6175404976691</v>
+        <v>438.617540497669</v>
       </c>
       <c r="K44" t="n">
-        <v>657.3739933381095</v>
+        <v>657.3739933381094</v>
       </c>
       <c r="L44" t="n">
-        <v>815.5305677207135</v>
+        <v>815.5305677207134</v>
       </c>
       <c r="M44" t="n">
-        <v>907.4348925069451</v>
+        <v>907.4348925069448</v>
       </c>
       <c r="N44" t="n">
-        <v>922.1181377616793</v>
+        <v>922.1181377616792</v>
       </c>
       <c r="O44" t="n">
-        <v>870.7300092964742</v>
+        <v>870.7300092964741</v>
       </c>
       <c r="P44" t="n">
-        <v>743.1479178838031</v>
+        <v>743.147917883803</v>
       </c>
       <c r="Q44" t="n">
-        <v>558.0731371763078</v>
+        <v>558.0731371763077</v>
       </c>
       <c r="R44" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284034</v>
       </c>
       <c r="S44" t="n">
         <v>117.7631152634429</v>
@@ -34401,7 +34401,7 @@
         <v>22.62240425960377</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4134305747043519</v>
+        <v>0.4134305747043518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>26.70466553276795</v>
       </c>
       <c r="I45" t="n">
-        <v>95.20055605459966</v>
+        <v>95.20055605459964</v>
       </c>
       <c r="J45" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894434</v>
       </c>
       <c r="K45" t="n">
-        <v>446.4966716257574</v>
+        <v>446.4966716257573</v>
       </c>
       <c r="L45" t="n">
-        <v>600.3698761124784</v>
+        <v>600.3698761124783</v>
       </c>
       <c r="M45" t="n">
-        <v>700.6033278056332</v>
+        <v>700.6033278056331</v>
       </c>
       <c r="N45" t="n">
-        <v>719.1462131823828</v>
+        <v>647.2465503338101</v>
       </c>
       <c r="O45" t="n">
-        <v>585.978625596505</v>
+        <v>657.8782884450785</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.35979043200372</v>
+        <v>51.35979043200371</v>
       </c>
       <c r="T45" t="n">
         <v>11.14513516104166</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,34 +34520,34 @@
         <v>2.318134036956524</v>
       </c>
       <c r="H46" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312256</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71261267501987</v>
+        <v>69.71261267501986</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128262</v>
       </c>
       <c r="K46" t="n">
         <v>269.325027202767</v>
       </c>
       <c r="L46" t="n">
-        <v>344.6433094580637</v>
+        <v>344.6433094580636</v>
       </c>
       <c r="M46" t="n">
-        <v>363.3780472658304</v>
+        <v>363.3780472658303</v>
       </c>
       <c r="N46" t="n">
         <v>354.73772949172</v>
       </c>
       <c r="O46" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509095</v>
       </c>
       <c r="P46" t="n">
         <v>280.3677747969962</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764231</v>
       </c>
       <c r="R46" t="n">
         <v>104.2317358798815</v>
@@ -34556,7 +34556,7 @@
         <v>40.39875408041505</v>
       </c>
       <c r="T46" t="n">
-        <v>9.904754521541511</v>
+        <v>9.904754521541509</v>
       </c>
       <c r="U46" t="n">
         <v>0.1264436747430833</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867967</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855685</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646072</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701982</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K23" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L23" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M23" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N23" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O23" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P23" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R23" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K24" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L24" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M24" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N24" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O24" t="n">
         <v>443.3823811520606</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K25" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L25" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M25" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N25" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O25" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P25" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q25" t="n">
         <v>107.9500714247288</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K26" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L26" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M26" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N26" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O26" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P26" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q26" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R26" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L27" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M27" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N27" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O27" t="n">
         <v>443.3823811520606</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K28" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L28" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M28" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N28" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O28" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P28" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q28" t="n">
         <v>107.9500714247288</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K29" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L29" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M29" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N29" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O29" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P29" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q29" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R29" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K30" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L30" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M30" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N30" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O30" t="n">
         <v>443.3823811520606</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K31" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L31" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M31" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N31" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O31" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P31" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q31" t="n">
         <v>107.9500714247288</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K32" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L32" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M32" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N32" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O32" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P32" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q32" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R32" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K33" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L33" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M33" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N33" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O33" t="n">
         <v>443.3823811520606</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K34" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L34" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M34" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N34" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O34" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P34" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q34" t="n">
         <v>107.9500714247288</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K35" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L35" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M35" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N35" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O35" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P35" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q35" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R35" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K36" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L36" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M36" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N36" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O36" t="n">
         <v>443.3823811520606</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K37" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L37" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M37" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N37" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O37" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P37" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q37" t="n">
         <v>107.9500714247288</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K38" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L38" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M38" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N38" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O38" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P38" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q38" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R38" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K39" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L39" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M39" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N39" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990495</v>
       </c>
       <c r="O39" t="n">
         <v>443.3823811520606</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K40" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L40" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M40" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N40" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O40" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P40" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q40" t="n">
         <v>107.9500714247288</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>257.5716359709829</v>
+        <v>257.5716359709828</v>
       </c>
       <c r="K41" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931289</v>
       </c>
       <c r="L41" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507262</v>
       </c>
       <c r="M41" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796724</v>
       </c>
       <c r="N41" t="n">
         <v>692.7050741650885</v>
       </c>
       <c r="O41" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747875</v>
       </c>
       <c r="P41" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285335</v>
       </c>
       <c r="Q41" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018583</v>
       </c>
       <c r="R41" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142713</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>134.3999756227769</v>
+        <v>134.3999756227768</v>
       </c>
       <c r="K42" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513984</v>
       </c>
       <c r="L42" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326043</v>
       </c>
       <c r="M42" t="n">
         <v>558.4692938836149</v>
       </c>
       <c r="N42" t="n">
-        <v>587.8045010990496</v>
+        <v>515.9048382504761</v>
       </c>
       <c r="O42" t="n">
-        <v>443.3823811520606</v>
+        <v>515.2820440006342</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.53289629615352</v>
+        <v>70.5328962961535</v>
       </c>
       <c r="K43" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768842</v>
       </c>
       <c r="L43" t="n">
         <v>372.2333347183799</v>
       </c>
       <c r="M43" t="n">
-        <v>402.9619242276711</v>
+        <v>402.961924227671</v>
       </c>
       <c r="N43" t="n">
         <v>398.8699018709486</v>
       </c>
       <c r="O43" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649492</v>
       </c>
       <c r="P43" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618897</v>
       </c>
       <c r="Q43" t="n">
         <v>107.9500714247288</v>
@@ -38019,25 +38019,25 @@
         <v>257.5716359709828</v>
       </c>
       <c r="K44" t="n">
-        <v>437.2841422931289</v>
+        <v>437.2841422931288</v>
       </c>
       <c r="L44" t="n">
         <v>579.7641527507262</v>
       </c>
       <c r="M44" t="n">
-        <v>677.0886592796724</v>
+        <v>677.0886592796721</v>
       </c>
       <c r="N44" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650883</v>
       </c>
       <c r="O44" t="n">
-        <v>640.6317978747875</v>
+        <v>640.6317978747874</v>
       </c>
       <c r="P44" t="n">
-        <v>511.9149221285335</v>
+        <v>511.9149221285334</v>
       </c>
       <c r="Q44" t="n">
-        <v>335.7674473018583</v>
+        <v>335.7674473018582</v>
       </c>
       <c r="R44" t="n">
         <v>109.0414414142713</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>134.3999756227768</v>
+        <v>134.3999756227767</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6552326513984</v>
+        <v>308.6552326513983</v>
       </c>
       <c r="L45" t="n">
-        <v>461.8154963326043</v>
+        <v>461.8154963326041</v>
       </c>
       <c r="M45" t="n">
-        <v>558.4692938836149</v>
+        <v>558.4692938836147</v>
       </c>
       <c r="N45" t="n">
-        <v>587.8045010990495</v>
+        <v>515.9048382504768</v>
       </c>
       <c r="O45" t="n">
-        <v>443.3823811520606</v>
+        <v>515.2820440006341</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.5328962961535</v>
+        <v>70.53289629615347</v>
       </c>
       <c r="K46" t="n">
-        <v>247.0555353768842</v>
+        <v>247.0555353768841</v>
       </c>
       <c r="L46" t="n">
-        <v>372.2333347183799</v>
+        <v>372.2333347183798</v>
       </c>
       <c r="M46" t="n">
-        <v>402.961924227671</v>
+        <v>402.9619242276709</v>
       </c>
       <c r="N46" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709485</v>
       </c>
       <c r="O46" t="n">
         <v>352.2428370649492</v>
@@ -38195,7 +38195,7 @@
         <v>277.6463340618897</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247287</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
